--- a/biology/Zoologie/Cucujidae/Cucujidae.xlsx
+++ b/biology/Zoologie/Cucujidae/Cucujidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cucujidae sont une famille d'insectes de l'ordre des coléoptères à répartition cosmopolite.
 La famille des Cucujidae comprend environ 40 espèces réparties en quatre genres.
@@ -513,12 +525,14 @@
           <t>Caractères généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cucujidae ont un corps allongé à bords parallèles, mesurant de 6 à 25 mm de long.
 La plupart des espèces sont de couleur brune, tandis que certaines sont noirs, rougeâtre ou jaunâtre.
 La tête est de forme triangulaire, et porte des antennes filiformes composées de 11 antennomères et de fortes mandibules.
-Le pronotum est plus étroit que la tête[1].
+Le pronotum est plus étroit que la tête.
 </t>
         </is>
       </c>
@@ -547,18 +561,89 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La famille était précédemment plus grande, comprenant plusieurs sous-familles : Laemophloeinae, Silvaninae et Passandrinae (certains genres de Tenebrionoidea y étaient également inclus), mais de récentes révisions ont élevé ces sous-familles au rang de famille.
-Liste des genres
-Selon Catalogue of Life                                   (17 sept. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille était précédemment plus grande, comprenant plusieurs sous-familles : Laemophloeinae, Silvaninae et Passandrinae (certains genres de Tenebrionoidea y étaient également inclus), mais de récentes révisions ont élevé ces sous-familles au rang de famille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cucujidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucujidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 sept. 2013) :
 genre Cucujus
 genre Pediacus
-Selon ITIS      (17 sept. 2013)[3] :
+Selon ITIS      (17 sept. 2013) :
 genre Cucujus Fabricius, 1775
-genre Pediacus Shuckard, 1839
-Liste des genres et espèces
-Selon NCBI  (17 sept. 2013)[4] :
+genre Pediacus Shuckard, 1839</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cucujidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucujidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 sept. 2013) :
 genre Cucujus
 Cucujus cinnaberinus
 Cucujus clavipes
